--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="360" yWindow="120" windowWidth="19155" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="Pinout" sheetId="1" r:id="rId1"/>
-    <sheet name="Front" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="franconian.Pinout" sheetId="4" r:id="rId1"/>
+    <sheet name="bcd.Pinout" sheetId="1" r:id="rId2"/>
+    <sheet name="bcd.Front" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>3V3</t>
   </si>
@@ -142,13 +143,100 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Front View Vertical - 24h Format</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>PAST</t>
+  </si>
+  <si>
+    <t>8'</t>
+  </si>
+  <si>
+    <t>7'</t>
+  </si>
+  <si>
+    <t>6'</t>
+  </si>
+  <si>
+    <t>5'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +269,33 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,6 +702,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +1059,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +1144,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="62">
         <v>4</v>
       </c>
       <c r="C6" s="21">
@@ -990,11 +1156,11 @@
       <c r="D6" s="22">
         <v>8</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="58">
         <v>14</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>25</v>
+      <c r="F6" s="60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,16 +1174,16 @@
       <c r="D7" s="22">
         <v>10</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="58">
         <v>15</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>26</v>
+      <c r="F7" s="60" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>11</v>
+      <c r="A8" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="12">
         <v>17</v>
@@ -1031,13 +1197,13 @@
       <c r="E8" s="16">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>2</v>
+      <c r="F8" s="56" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>12</v>
+      <c r="A9" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="12">
         <v>27</v>
@@ -1054,8 +1220,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>13</v>
+      <c r="A10" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="12">
         <v>22</v>
@@ -1069,8 +1235,8 @@
       <c r="E10" s="16">
         <v>23</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
+      <c r="F10" s="56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,13 +1253,13 @@
       <c r="E11" s="16">
         <v>24</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
+      <c r="F11" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>14</v>
+      <c r="A12" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="12">
         <v>10</v>
@@ -1110,8 +1276,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>15</v>
+      <c r="A13" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="12">
         <v>9</v>
@@ -1125,13 +1291,13 @@
       <c r="E13" s="16">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>4</v>
+      <c r="F13" s="56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>16</v>
+      <c r="A14" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -1142,11 +1308,11 @@
       <c r="D14" s="25">
         <v>24</v>
       </c>
-      <c r="E14" s="16">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>5</v>
+      <c r="E14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,11 +1326,11 @@
       <c r="D15" s="25">
         <v>26</v>
       </c>
-      <c r="E15" s="16">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>6</v>
+      <c r="E15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,11 +1350,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12">
-        <v>5</v>
+      <c r="A17" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="24">
         <v>29</v>
@@ -1202,11 +1368,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12">
-        <v>6</v>
+      <c r="A18" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="24">
         <v>31</v>
@@ -1217,13 +1383,13 @@
       <c r="E18" s="16">
         <v>12</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
+      <c r="F18" s="56" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>19</v>
+      <c r="A19" s="57" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="12">
         <v>13</v>
@@ -1240,8 +1406,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>20</v>
+      <c r="A20" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="12">
         <v>19</v>
@@ -1255,13 +1421,13 @@
       <c r="E20" s="16">
         <v>16</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>8</v>
+      <c r="F20" s="56" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>21</v>
+      <c r="A21" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="12">
         <v>29</v>
@@ -1275,8 +1441,8 @@
       <c r="E21" s="16">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>9</v>
+      <c r="F21" s="56" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1293,8 +1459,8 @@
       <c r="E22" s="16">
         <v>21</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>10</v>
+      <c r="F22" s="56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1306,215 +1472,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="2.7109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="39" customWidth="1"/>
-    <col min="8" max="15" width="2.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15">
+        <v>14</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="23">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <v>15</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12">
+        <v>22</v>
+      </c>
+      <c r="C10" s="24">
+        <v>15</v>
+      </c>
+      <c r="D10" s="25">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="26">
+        <v>17</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24">
+        <v>19</v>
+      </c>
+      <c r="D12" s="20">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12">
+        <v>9</v>
+      </c>
+      <c r="C13" s="24">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25">
+        <v>22</v>
+      </c>
+      <c r="E13" s="16">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="23">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25">
+        <v>26</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="24">
+        <v>27</v>
+      </c>
+      <c r="D16" s="25">
+        <v>28</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="24">
+        <v>29</v>
+      </c>
+      <c r="D17" s="20">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="24">
+        <v>31</v>
+      </c>
+      <c r="D18" s="25">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12">
+        <v>13</v>
+      </c>
+      <c r="C19" s="24">
+        <v>33</v>
+      </c>
+      <c r="D19" s="20">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <v>19</v>
+      </c>
+      <c r="C20" s="24">
+        <v>35</v>
+      </c>
+      <c r="D20" s="25">
+        <v>36</v>
+      </c>
+      <c r="E20" s="16">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24">
+        <v>37</v>
+      </c>
+      <c r="D21" s="25">
+        <v>38</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="27">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="D4" s="42">
-        <v>2</v>
-      </c>
-      <c r="F4" s="42">
-        <v>1</v>
-      </c>
-      <c r="H4" s="42">
-        <v>8</v>
-      </c>
-      <c r="J4" s="42">
-        <v>4</v>
-      </c>
-      <c r="L4" s="42">
-        <v>2</v>
-      </c>
-      <c r="N4" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="43">
-        <v>4</v>
-      </c>
-      <c r="D7" s="43">
-        <v>2</v>
-      </c>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43">
-        <v>8</v>
-      </c>
-      <c r="J7" s="43">
-        <v>4</v>
-      </c>
-      <c r="L7" s="43">
-        <v>2</v>
-      </c>
-      <c r="N7" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
-        <v>4</v>
-      </c>
-      <c r="D10" s="44">
-        <v>2</v>
-      </c>
-      <c r="F10" s="44">
-        <v>1</v>
-      </c>
-      <c r="H10" s="44">
-        <v>8</v>
-      </c>
-      <c r="J10" s="44">
-        <v>4</v>
-      </c>
-      <c r="L10" s="44">
-        <v>2</v>
-      </c>
-      <c r="N10" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="D22" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="K15" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="42">
-        <v>8</v>
-      </c>
-      <c r="J16" s="42">
-        <v>4</v>
-      </c>
-      <c r="L16" s="42">
-        <v>2</v>
-      </c>
-      <c r="N16" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="43">
-        <v>4</v>
-      </c>
-      <c r="D19" s="43">
-        <v>2</v>
-      </c>
-      <c r="F19" s="43">
-        <v>1</v>
-      </c>
-      <c r="H19" s="43">
-        <v>8</v>
-      </c>
-      <c r="J19" s="43">
-        <v>4</v>
-      </c>
-      <c r="L19" s="43">
-        <v>2</v>
-      </c>
-      <c r="N19" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="44">
-        <v>4</v>
-      </c>
-      <c r="D22" s="44">
-        <v>2</v>
-      </c>
-      <c r="F22" s="44">
-        <v>1</v>
-      </c>
-      <c r="H22" s="44">
-        <v>8</v>
-      </c>
-      <c r="J22" s="44">
-        <v>4</v>
-      </c>
-      <c r="L22" s="44">
-        <v>2</v>
-      </c>
-      <c r="N22" s="44">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="E22" s="16">
+        <v>21</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1522,6 +1887,353 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="2.7109375" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="D4" s="42">
+        <v>2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="I4" s="42">
+        <v>8</v>
+      </c>
+      <c r="K4" s="42">
+        <v>4</v>
+      </c>
+      <c r="M4" s="42">
+        <v>2</v>
+      </c>
+      <c r="O4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="L6" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
+        <v>4</v>
+      </c>
+      <c r="D7" s="43">
+        <v>2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="I7" s="43">
+        <v>8</v>
+      </c>
+      <c r="K7" s="43">
+        <v>4</v>
+      </c>
+      <c r="M7" s="43">
+        <v>2</v>
+      </c>
+      <c r="O7" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="L9" s="51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
+        <v>4</v>
+      </c>
+      <c r="D10" s="44">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="I10" s="44">
+        <v>8</v>
+      </c>
+      <c r="K10" s="44">
+        <v>4</v>
+      </c>
+      <c r="M10" s="44">
+        <v>2</v>
+      </c>
+      <c r="O10" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="L15" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="I16" s="42">
+        <v>8</v>
+      </c>
+      <c r="K16" s="42">
+        <v>4</v>
+      </c>
+      <c r="M16" s="42">
+        <v>2</v>
+      </c>
+      <c r="O16" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="L18" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="43">
+        <v>4</v>
+      </c>
+      <c r="D19" s="43">
+        <v>2</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="I19" s="43">
+        <v>8</v>
+      </c>
+      <c r="K19" s="43">
+        <v>4</v>
+      </c>
+      <c r="M19" s="43">
+        <v>2</v>
+      </c>
+      <c r="O19" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="L21" s="51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
+        <v>4</v>
+      </c>
+      <c r="D22" s="44">
+        <v>2</v>
+      </c>
+      <c r="F22" s="44">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="I22" s="44">
+        <v>8</v>
+      </c>
+      <c r="K22" s="44">
+        <v>4</v>
+      </c>
+      <c r="M22" s="44">
+        <v>2</v>
+      </c>
+      <c r="O22" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G23" s="46"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="48" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="42">
+        <v>8</v>
+      </c>
+      <c r="I28" s="43">
+        <v>8</v>
+      </c>
+      <c r="N28" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="42">
+        <v>4</v>
+      </c>
+      <c r="G30" s="43">
+        <v>4</v>
+      </c>
+      <c r="I30" s="43">
+        <v>4</v>
+      </c>
+      <c r="L30" s="44">
+        <v>4</v>
+      </c>
+      <c r="N30" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="D32" s="42">
+        <v>2</v>
+      </c>
+      <c r="G32" s="43">
+        <v>2</v>
+      </c>
+      <c r="I32" s="43">
+        <v>2</v>
+      </c>
+      <c r="L32" s="44">
+        <v>2</v>
+      </c>
+      <c r="N32" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="42">
+        <v>1</v>
+      </c>
+      <c r="D34" s="42">
+        <v>1</v>
+      </c>
+      <c r="G34" s="43">
+        <v>1</v>
+      </c>
+      <c r="I34" s="43">
+        <v>1</v>
+      </c>
+      <c r="L34" s="44">
+        <v>1</v>
+      </c>
+      <c r="N34" s="44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
